--- a/bootscan/bootscan_references.xlsx
+++ b/bootscan/bootscan_references.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gwenddolenkettenburg/Desktop/developer/mada-bat-picornavirus/bootscan/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1EBB7CC9-9172-7245-AEEE-79BF28C1D62A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{074A89F4-6C83-9D42-9B52-6B99DE3FFF6F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="46040" yWindow="-1760" windowWidth="18620" windowHeight="18820" xr2:uid="{D098B555-783A-FB4C-A4D2-95855C80ECD2}"/>
+    <workbookView xWindow="30580" yWindow="-1600" windowWidth="14880" windowHeight="18820" xr2:uid="{D098B555-783A-FB4C-A4D2-95855C80ECD2}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="594" uniqueCount="278">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="638" uniqueCount="323">
   <si>
     <t>cardiovirus</t>
   </si>
@@ -485,6 +485,9 @@
     <t>Hipposideros bat hepatovirus</t>
   </si>
   <si>
+    <t>NC_028981.1</t>
+  </si>
+  <si>
     <t>OP287812.1</t>
   </si>
   <si>
@@ -870,6 +873,138 @@
   </si>
   <si>
     <t>9,10,11,12</t>
+  </si>
+  <si>
+    <t>R. leschenaulti sapovirus</t>
+  </si>
+  <si>
+    <t>17,18</t>
+  </si>
+  <si>
+    <t>hepato_bootscan_align_nt</t>
+  </si>
+  <si>
+    <t>kobu_bootscan_align_nt</t>
+  </si>
+  <si>
+    <t>kunsagi_bootscan_align_nt</t>
+  </si>
+  <si>
+    <t>mischi_bootscan_align_nt</t>
+  </si>
+  <si>
+    <t>sapelo_bootscan_align_nt</t>
+  </si>
+  <si>
+    <t>sapo_bootscan_align_nt</t>
+  </si>
+  <si>
+    <t>tescho_bootscan_align_nt</t>
+  </si>
+  <si>
+    <t>batpicorna_bootscan_align_nt</t>
+  </si>
+  <si>
+    <t>2,3,5,7,12,11</t>
+  </si>
+  <si>
+    <t>1,8,9,14,15</t>
+  </si>
+  <si>
+    <t>1,2,3,4</t>
+  </si>
+  <si>
+    <t>1,2,7,8,9</t>
+  </si>
+  <si>
+    <t>1,2,3,12,17,18</t>
+  </si>
+  <si>
+    <t>1,6,22,23,24</t>
+  </si>
+  <si>
+    <t>tescho_bootscan_align_all_nt</t>
+  </si>
+  <si>
+    <t>1,2,3,8,9,10</t>
+  </si>
+  <si>
+    <t>1,2,3,8,10</t>
+  </si>
+  <si>
+    <t>1,2,4,8,17,18</t>
+  </si>
+  <si>
+    <t>kobu_bootscan_all_align_nt_left</t>
+  </si>
+  <si>
+    <t>kobu_bootscan_all_align_nt_mid</t>
+  </si>
+  <si>
+    <t>kobu_bootscan_all_align_nt_right</t>
+  </si>
+  <si>
+    <t>1,2,6,7,8,9,14,15</t>
+  </si>
+  <si>
+    <t>1,3,4,8,9,14,15</t>
+  </si>
+  <si>
+    <t>1,5,8,9,14,15</t>
+  </si>
+  <si>
+    <t>sapelo_bootscan_all_align_nt_left</t>
+  </si>
+  <si>
+    <t>sapelo_bootscan_all_align_nt_mid</t>
+  </si>
+  <si>
+    <t>sapelo_bootscan_all_align_nt_right</t>
+  </si>
+  <si>
+    <t>1,2,3,5,12,17,18</t>
+  </si>
+  <si>
+    <t>1,2,3,7,11,12,17,18</t>
+  </si>
+  <si>
+    <t>1,2,3,4,6,8,9,12,17,18</t>
+  </si>
+  <si>
+    <t>sapo_bootscan_all_align_nt_left</t>
+  </si>
+  <si>
+    <t>sapo_bootscan_all_align_nt_mid</t>
+  </si>
+  <si>
+    <t>sapo_bootscan_all_align_nt_right</t>
+  </si>
+  <si>
+    <t>1,2,9,12,6,22,23,24</t>
+  </si>
+  <si>
+    <t>1,4,5,10,6,22,23,24</t>
+  </si>
+  <si>
+    <t>1,6,7,14,22,23,24</t>
+  </si>
+  <si>
+    <t>batpicorna_bootscan_all_align_nt_left</t>
+  </si>
+  <si>
+    <t>batpicorna_bootscan_all_align_nt_mid</t>
+  </si>
+  <si>
+    <t>batpicorna_bootscan_all_align_nt_right</t>
+  </si>
+  <si>
+    <t>1,2,4,5,8,17,18</t>
+  </si>
+  <si>
+    <t>1,2,4,6,8,17,18</t>
+  </si>
+  <si>
+    <t>1,2,3,7,4,8,17,18</t>
   </si>
 </sst>
 </file>
@@ -1290,15 +1425,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{66D3F017-F6A7-2E48-AA72-A9E646068FC2}">
-  <dimension ref="A4:H187"/>
+  <dimension ref="A4:H212"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+    <sheetView tabSelected="1" topLeftCell="A185" workbookViewId="0">
+      <selection activeCell="B213" sqref="B213"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="3" max="3" width="26.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="34.5" customWidth="1"/>
     <col min="4" max="4" width="14.5" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="12.1640625" customWidth="1"/>
   </cols>
@@ -1310,7 +1445,7 @@
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="B5" t="s">
         <v>1</v>
@@ -1319,7 +1454,7 @@
         <v>2</v>
       </c>
       <c r="D5" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="E5" t="s">
         <v>85</v>
@@ -1365,7 +1500,7 @@
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="E8" s="3"/>
     </row>
@@ -1376,7 +1511,7 @@
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="B13" t="s">
         <v>1</v>
@@ -1385,7 +1520,7 @@
         <v>2</v>
       </c>
       <c r="D13" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="E13" t="s">
         <v>7</v>
@@ -1512,10 +1647,10 @@
         <v>147</v>
       </c>
       <c r="C18" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="D18" s="5" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="E18" s="3"/>
     </row>
@@ -1524,13 +1659,13 @@
         <v>6</v>
       </c>
       <c r="B19" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="C19" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="D19" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="E19" s="3"/>
     </row>
@@ -1539,13 +1674,13 @@
         <v>7</v>
       </c>
       <c r="B20" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="C20" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="E20" s="3"/>
     </row>
@@ -1554,13 +1689,13 @@
         <v>8</v>
       </c>
       <c r="B21" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="C21" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="D21" s="6" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="E21" s="3"/>
     </row>
@@ -1569,13 +1704,13 @@
         <v>9</v>
       </c>
       <c r="B22" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="C22" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="D22" s="6" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="E22" s="3"/>
     </row>
@@ -1584,13 +1719,13 @@
         <v>10</v>
       </c>
       <c r="B23" t="s">
+        <v>194</v>
+      </c>
+      <c r="C23" t="s">
+        <v>195</v>
+      </c>
+      <c r="D23" s="6" t="s">
         <v>193</v>
-      </c>
-      <c r="C23" t="s">
-        <v>194</v>
-      </c>
-      <c r="D23" s="6" t="s">
-        <v>192</v>
       </c>
       <c r="E23" s="3"/>
     </row>
@@ -1599,13 +1734,13 @@
         <v>11</v>
       </c>
       <c r="B24" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="C24" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="D24" s="4" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="E24" s="3"/>
     </row>
@@ -1614,13 +1749,13 @@
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="B26" t="s">
+        <v>264</v>
+      </c>
+      <c r="C26" t="s">
         <v>263</v>
-      </c>
-      <c r="C26" t="s">
-        <v>262</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.2">
@@ -1631,15 +1766,23 @@
         <v>148</v>
       </c>
       <c r="C27" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="B29" t="s">
-        <v>265</v>
+        <v>266</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>281</v>
+      </c>
+      <c r="B30" t="s">
+        <v>289</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.2">
@@ -1658,7 +1801,7 @@
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="B35" t="s">
         <v>1</v>
@@ -1667,7 +1810,7 @@
         <v>2</v>
       </c>
       <c r="D35" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="E35" t="s">
         <v>7</v>
@@ -1895,13 +2038,13 @@
         <v>9</v>
       </c>
       <c r="B44" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="C44" t="s">
         <v>15</v>
       </c>
       <c r="D44" s="4" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="E44" s="3"/>
     </row>
@@ -1910,13 +2053,13 @@
         <v>10</v>
       </c>
       <c r="B45" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="C45" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="D45" s="6" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.2">
@@ -1924,13 +2067,13 @@
         <v>11</v>
       </c>
       <c r="B46" t="s">
+        <v>203</v>
+      </c>
+      <c r="C46" t="s">
+        <v>204</v>
+      </c>
+      <c r="D46" s="6" t="s">
         <v>202</v>
-      </c>
-      <c r="C46" t="s">
-        <v>203</v>
-      </c>
-      <c r="D46" s="6" t="s">
-        <v>201</v>
       </c>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.2">
@@ -1938,13 +2081,13 @@
         <v>12</v>
       </c>
       <c r="B47" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="C47" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="D47" s="6" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.2">
@@ -1952,13 +2095,13 @@
         <v>13</v>
       </c>
       <c r="B48" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="C48" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="D48" s="6" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.2">
@@ -1966,24 +2109,24 @@
         <v>14</v>
       </c>
       <c r="B49" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="C49" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="D49" s="5" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="B51" t="s">
+        <v>264</v>
+      </c>
+      <c r="C51" t="s">
         <v>263</v>
-      </c>
-      <c r="C51" t="s">
-        <v>262</v>
       </c>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.2">
@@ -1991,591 +2134,431 @@
         <v>15</v>
       </c>
       <c r="B52" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="C52" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
+        <v>265</v>
+      </c>
+      <c r="B54" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A55" t="s">
+        <v>282</v>
+      </c>
+      <c r="B55" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A56" t="s">
+        <v>299</v>
+      </c>
+      <c r="B56" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A57" t="s">
+        <v>300</v>
+      </c>
+      <c r="B57" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A58" t="s">
+        <v>301</v>
+      </c>
+      <c r="B58" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B62" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A63" t="s">
+        <v>164</v>
+      </c>
+      <c r="B63" t="s">
+        <v>1</v>
+      </c>
+      <c r="C63" t="s">
+        <v>2</v>
+      </c>
+      <c r="D63" t="s">
+        <v>166</v>
+      </c>
+      <c r="E63" t="s">
+        <v>7</v>
+      </c>
+      <c r="F63" t="s">
+        <v>86</v>
+      </c>
+      <c r="G63" t="s">
+        <v>87</v>
+      </c>
+      <c r="H63" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A64">
+        <v>1</v>
+      </c>
+      <c r="B64" t="s">
+        <v>25</v>
+      </c>
+      <c r="C64" t="s">
+        <v>26</v>
+      </c>
+      <c r="D64" t="s">
+        <v>5</v>
+      </c>
+      <c r="E64" s="1">
+        <v>7329</v>
+      </c>
+      <c r="F64" t="s">
+        <v>95</v>
+      </c>
+      <c r="G64" t="s">
+        <v>96</v>
+      </c>
+      <c r="H64" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A65">
+        <v>2</v>
+      </c>
+      <c r="B65" t="s">
+        <v>151</v>
+      </c>
+      <c r="C65" t="s">
+        <v>95</v>
+      </c>
+      <c r="D65" s="5" t="s">
+        <v>170</v>
+      </c>
+      <c r="E65" s="3"/>
+    </row>
+    <row r="66" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A66">
+        <v>3</v>
+      </c>
+      <c r="B66" t="s">
+        <v>152</v>
+      </c>
+      <c r="C66" t="s">
+        <v>146</v>
+      </c>
+      <c r="D66" s="4" t="s">
+        <v>214</v>
+      </c>
+      <c r="E66" s="3"/>
+    </row>
+    <row r="67" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A67">
+        <v>4</v>
+      </c>
+      <c r="B67" t="s">
+        <v>212</v>
+      </c>
+      <c r="C67" t="s">
+        <v>213</v>
+      </c>
+      <c r="D67" s="7" t="s">
+        <v>215</v>
+      </c>
+      <c r="E67" s="3"/>
+    </row>
+    <row r="68" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="E68" s="3"/>
+    </row>
+    <row r="69" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A69" t="s">
+        <v>164</v>
+      </c>
+      <c r="B69" t="s">
         <v>264</v>
       </c>
-      <c r="B54" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B58" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A59" t="s">
-        <v>163</v>
-      </c>
-      <c r="B59" t="s">
-        <v>1</v>
-      </c>
-      <c r="C59" t="s">
-        <v>2</v>
-      </c>
-      <c r="D59" t="s">
-        <v>165</v>
-      </c>
-      <c r="E59" t="s">
-        <v>7</v>
-      </c>
-      <c r="F59" t="s">
-        <v>86</v>
-      </c>
-      <c r="G59" t="s">
-        <v>87</v>
-      </c>
-      <c r="H59" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A60">
-        <v>1</v>
-      </c>
-      <c r="B60" t="s">
-        <v>25</v>
-      </c>
-      <c r="C60" t="s">
-        <v>26</v>
-      </c>
-      <c r="D60" t="s">
-        <v>5</v>
-      </c>
-      <c r="E60" s="1">
-        <v>7329</v>
-      </c>
-      <c r="F60" t="s">
-        <v>95</v>
-      </c>
-      <c r="G60" t="s">
-        <v>96</v>
-      </c>
-      <c r="H60" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A61">
-        <v>2</v>
-      </c>
-      <c r="B61" t="s">
-        <v>150</v>
-      </c>
-      <c r="C61" t="s">
-        <v>95</v>
-      </c>
-      <c r="D61" s="5" t="s">
-        <v>169</v>
-      </c>
-      <c r="E61" s="3"/>
-    </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A62">
-        <v>3</v>
-      </c>
-      <c r="B62" t="s">
-        <v>151</v>
-      </c>
-      <c r="C62" t="s">
-        <v>146</v>
-      </c>
-      <c r="D62" s="4" t="s">
-        <v>213</v>
-      </c>
-      <c r="E62" s="3"/>
-    </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A63">
-        <v>4</v>
-      </c>
-      <c r="B63" t="s">
-        <v>211</v>
-      </c>
-      <c r="C63" t="s">
-        <v>212</v>
-      </c>
-      <c r="D63" s="7" t="s">
-        <v>214</v>
-      </c>
-      <c r="E63" s="3"/>
-    </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="E64" s="3"/>
-    </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A65" t="s">
-        <v>163</v>
-      </c>
-      <c r="B65" t="s">
+      <c r="C69" t="s">
         <v>263</v>
       </c>
-      <c r="C65" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B66" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A68" t="s">
-        <v>264</v>
-      </c>
-      <c r="B68" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B71" t="s">
-        <v>27</v>
+    </row>
+    <row r="70" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B70" t="s">
+        <v>269</v>
       </c>
     </row>
     <row r="72" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
-        <v>163</v>
+        <v>265</v>
       </c>
       <c r="B72" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A73" t="s">
+        <v>283</v>
+      </c>
+      <c r="B73" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B77" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A78" t="s">
+        <v>164</v>
+      </c>
+      <c r="B78" t="s">
         <v>1</v>
       </c>
-      <c r="C72" t="s">
+      <c r="C78" t="s">
         <v>2</v>
       </c>
-      <c r="D72" t="s">
-        <v>165</v>
-      </c>
-      <c r="E72" t="s">
+      <c r="D78" t="s">
+        <v>166</v>
+      </c>
+      <c r="E78" t="s">
         <v>7</v>
       </c>
-      <c r="F72" t="s">
+      <c r="F78" t="s">
         <v>86</v>
       </c>
-      <c r="G72" t="s">
+      <c r="G78" t="s">
         <v>87</v>
       </c>
-      <c r="H72" t="s">
+      <c r="H78" t="s">
         <v>121</v>
       </c>
-    </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A73">
-        <v>1</v>
-      </c>
-      <c r="B73" t="s">
-        <v>28</v>
-      </c>
-      <c r="C73" t="s">
-        <v>29</v>
-      </c>
-      <c r="D73" t="s">
-        <v>5</v>
-      </c>
-      <c r="E73" s="1">
-        <v>7982</v>
-      </c>
-      <c r="F73" t="s">
-        <v>97</v>
-      </c>
-      <c r="G73" t="s">
-        <v>98</v>
-      </c>
-      <c r="H73" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A74">
-        <v>2</v>
-      </c>
-      <c r="B74" t="s">
-        <v>152</v>
-      </c>
-      <c r="C74" t="s">
-        <v>215</v>
-      </c>
-      <c r="D74" s="7" t="s">
-        <v>216</v>
-      </c>
-      <c r="F74" s="3"/>
-    </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A75">
-        <v>3</v>
-      </c>
-      <c r="B75" t="s">
-        <v>145</v>
-      </c>
-      <c r="C75" t="s">
-        <v>217</v>
-      </c>
-      <c r="D75" s="4" t="s">
-        <v>218</v>
-      </c>
-      <c r="F75" s="3"/>
-    </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A76">
-        <v>4</v>
-      </c>
-      <c r="B76" t="s">
-        <v>219</v>
-      </c>
-      <c r="C76" t="s">
-        <v>220</v>
-      </c>
-      <c r="D76" s="4" t="s">
-        <v>221</v>
-      </c>
-      <c r="F76" s="3"/>
-    </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A77">
-        <v>5</v>
-      </c>
-      <c r="B77" t="s">
-        <v>143</v>
-      </c>
-      <c r="C77" t="s">
-        <v>142</v>
-      </c>
-      <c r="D77" s="5" t="s">
-        <v>222</v>
-      </c>
-      <c r="F77" s="3"/>
-    </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A78">
-        <v>6</v>
-      </c>
-      <c r="B78" t="s">
-        <v>224</v>
-      </c>
-      <c r="C78" t="s">
-        <v>142</v>
-      </c>
-      <c r="D78" s="5" t="s">
-        <v>223</v>
-      </c>
-      <c r="F78" s="3"/>
     </row>
     <row r="79" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A79">
+        <v>1</v>
+      </c>
+      <c r="B79" t="s">
+        <v>28</v>
+      </c>
+      <c r="C79" t="s">
+        <v>29</v>
+      </c>
+      <c r="D79" t="s">
+        <v>5</v>
+      </c>
+      <c r="E79" s="1">
+        <v>7982</v>
+      </c>
+      <c r="F79" t="s">
+        <v>97</v>
+      </c>
+      <c r="G79" t="s">
+        <v>98</v>
+      </c>
+      <c r="H79" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A80">
+        <v>2</v>
+      </c>
+      <c r="B80" t="s">
+        <v>153</v>
+      </c>
+      <c r="C80" t="s">
+        <v>216</v>
+      </c>
+      <c r="D80" s="7" t="s">
+        <v>217</v>
+      </c>
+      <c r="F80" s="3"/>
+    </row>
+    <row r="81" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A81">
+        <v>3</v>
+      </c>
+      <c r="B81" t="s">
+        <v>145</v>
+      </c>
+      <c r="C81" t="s">
+        <v>218</v>
+      </c>
+      <c r="D81" s="4" t="s">
+        <v>219</v>
+      </c>
+      <c r="F81" s="3"/>
+    </row>
+    <row r="82" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A82">
+        <v>4</v>
+      </c>
+      <c r="B82" t="s">
+        <v>220</v>
+      </c>
+      <c r="C82" t="s">
+        <v>221</v>
+      </c>
+      <c r="D82" s="4" t="s">
+        <v>222</v>
+      </c>
+      <c r="F82" s="3"/>
+    </row>
+    <row r="83" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A83">
+        <v>5</v>
+      </c>
+      <c r="B83" t="s">
+        <v>143</v>
+      </c>
+      <c r="C83" t="s">
+        <v>142</v>
+      </c>
+      <c r="D83" s="5" t="s">
+        <v>223</v>
+      </c>
+      <c r="F83" s="3"/>
+    </row>
+    <row r="84" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A84">
+        <v>6</v>
+      </c>
+      <c r="B84" t="s">
+        <v>225</v>
+      </c>
+      <c r="C84" t="s">
+        <v>142</v>
+      </c>
+      <c r="D84" s="5" t="s">
+        <v>224</v>
+      </c>
+      <c r="F84" s="3"/>
+    </row>
+    <row r="85" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A85">
         <v>7</v>
       </c>
-      <c r="B79" t="s">
-        <v>225</v>
-      </c>
-      <c r="C79" t="s">
+      <c r="B85" t="s">
         <v>226</v>
       </c>
-      <c r="D79" s="1" t="s">
+      <c r="C85" t="s">
         <v>227</v>
       </c>
-      <c r="F79" s="3"/>
-    </row>
-    <row r="81" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A81" t="s">
-        <v>163</v>
-      </c>
-      <c r="B81" t="s">
+      <c r="D85" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="F85" s="3"/>
+    </row>
+    <row r="87" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A87" t="s">
+        <v>164</v>
+      </c>
+      <c r="B87" t="s">
+        <v>264</v>
+      </c>
+      <c r="C87" t="s">
         <v>263</v>
       </c>
-      <c r="C81" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="82" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A82">
+    </row>
+    <row r="88" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A88">
         <v>8</v>
       </c>
-      <c r="B82" t="s">
+      <c r="B88" t="s">
         <v>144</v>
       </c>
-      <c r="C82" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="83" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A83">
+      <c r="C88" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A89">
         <v>9</v>
       </c>
-      <c r="B83" t="s">
+      <c r="B89" t="s">
         <v>142</v>
       </c>
-      <c r="C83" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="85" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A85" t="s">
-        <v>264</v>
-      </c>
-      <c r="B85" t="s">
+      <c r="C89" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A91" t="s">
         <v>265</v>
       </c>
-    </row>
-    <row r="88" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B88" t="s">
+      <c r="B91" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A92" t="s">
+        <v>284</v>
+      </c>
+      <c r="B92" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B96" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="89" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A89" t="s">
-        <v>163</v>
-      </c>
-      <c r="B89" t="s">
+    <row r="97" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A97" t="s">
+        <v>164</v>
+      </c>
+      <c r="B97" t="s">
         <v>1</v>
       </c>
-      <c r="C89" t="s">
+      <c r="C97" t="s">
         <v>2</v>
       </c>
-      <c r="D89" t="s">
-        <v>165</v>
-      </c>
-      <c r="E89" t="s">
+      <c r="D97" t="s">
+        <v>166</v>
+      </c>
+      <c r="E97" t="s">
         <v>7</v>
       </c>
-      <c r="F89" t="s">
+      <c r="F97" t="s">
         <v>86</v>
       </c>
-      <c r="G89" t="s">
+      <c r="G97" t="s">
         <v>87</v>
       </c>
-      <c r="H89" t="s">
+      <c r="H97" t="s">
         <v>121</v>
-      </c>
-    </row>
-    <row r="90" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A90">
-        <v>1</v>
-      </c>
-      <c r="B90" t="s">
-        <v>31</v>
-      </c>
-      <c r="C90" t="s">
-        <v>32</v>
-      </c>
-      <c r="D90" t="s">
-        <v>5</v>
-      </c>
-      <c r="E90" s="1">
-        <v>7685</v>
-      </c>
-      <c r="F90" t="s">
-        <v>99</v>
-      </c>
-      <c r="G90" t="s">
-        <v>101</v>
-      </c>
-      <c r="H90" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="91" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A91">
-        <v>2</v>
-      </c>
-      <c r="B91" t="s">
-        <v>33</v>
-      </c>
-      <c r="C91" t="s">
-        <v>34</v>
-      </c>
-      <c r="D91" t="s">
-        <v>5</v>
-      </c>
-      <c r="E91" s="1">
-        <v>7751</v>
-      </c>
-      <c r="F91" t="s">
-        <v>99</v>
-      </c>
-      <c r="G91" t="s">
-        <v>101</v>
-      </c>
-      <c r="H91" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="92" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A92">
-        <v>3</v>
-      </c>
-      <c r="B92" t="s">
-        <v>35</v>
-      </c>
-      <c r="C92" t="s">
-        <v>36</v>
-      </c>
-      <c r="D92" t="s">
-        <v>5</v>
-      </c>
-      <c r="E92" s="1">
-        <v>7714</v>
-      </c>
-      <c r="F92" t="s">
-        <v>100</v>
-      </c>
-      <c r="G92" t="s">
-        <v>102</v>
-      </c>
-      <c r="H92" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="93" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A93">
-        <v>4</v>
-      </c>
-      <c r="B93" t="s">
-        <v>37</v>
-      </c>
-      <c r="C93" t="s">
-        <v>32</v>
-      </c>
-      <c r="D93" t="s">
-        <v>5</v>
-      </c>
-      <c r="E93">
-        <v>1177</v>
-      </c>
-      <c r="F93" t="s">
-        <v>99</v>
-      </c>
-      <c r="G93" t="s">
-        <v>101</v>
-      </c>
-      <c r="H93" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="94" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A94">
-        <v>5</v>
-      </c>
-      <c r="B94" t="s">
-        <v>38</v>
-      </c>
-      <c r="C94" t="s">
-        <v>32</v>
-      </c>
-      <c r="D94" t="s">
-        <v>5</v>
-      </c>
-      <c r="E94">
-        <v>1127</v>
-      </c>
-      <c r="F94" t="s">
-        <v>99</v>
-      </c>
-      <c r="G94" t="s">
-        <v>101</v>
-      </c>
-      <c r="H94" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="95" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A95">
-        <v>6</v>
-      </c>
-      <c r="B95" t="s">
-        <v>39</v>
-      </c>
-      <c r="C95" t="s">
-        <v>32</v>
-      </c>
-      <c r="D95" t="s">
-        <v>5</v>
-      </c>
-      <c r="E95">
-        <v>2134</v>
-      </c>
-      <c r="F95" t="s">
-        <v>99</v>
-      </c>
-      <c r="G95" t="s">
-        <v>101</v>
-      </c>
-      <c r="H95" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="96" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A96">
-        <v>7</v>
-      </c>
-      <c r="B96" t="s">
-        <v>40</v>
-      </c>
-      <c r="C96" t="s">
-        <v>34</v>
-      </c>
-      <c r="D96" t="s">
-        <v>5</v>
-      </c>
-      <c r="E96">
-        <v>1717</v>
-      </c>
-      <c r="F96" t="s">
-        <v>99</v>
-      </c>
-      <c r="G96" t="s">
-        <v>101</v>
-      </c>
-      <c r="H96" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="97" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A97">
-        <v>8</v>
-      </c>
-      <c r="B97" t="s">
-        <v>41</v>
-      </c>
-      <c r="C97" t="s">
-        <v>34</v>
-      </c>
-      <c r="D97" t="s">
-        <v>5</v>
-      </c>
-      <c r="E97">
-        <v>1244</v>
-      </c>
-      <c r="F97" t="s">
-        <v>99</v>
-      </c>
-      <c r="G97" t="s">
-        <v>101</v>
-      </c>
-      <c r="H97" t="s">
-        <v>125</v>
       </c>
     </row>
     <row r="98" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A98">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="B98" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="C98" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D98" t="s">
         <v>5</v>
       </c>
-      <c r="E98">
-        <v>1165</v>
+      <c r="E98" s="1">
+        <v>7685</v>
       </c>
       <c r="F98" t="s">
         <v>99</v>
@@ -2589,19 +2572,19 @@
     </row>
     <row r="99" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A99">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="B99" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="C99" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D99" t="s">
         <v>5</v>
       </c>
-      <c r="E99">
-        <v>1111</v>
+      <c r="E99" s="1">
+        <v>7751</v>
       </c>
       <c r="F99" t="s">
         <v>99</v>
@@ -2615,932 +2598,986 @@
     </row>
     <row r="100" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A100">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="B100" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="C100" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="D100" t="s">
         <v>5</v>
       </c>
-      <c r="E100">
-        <v>1924</v>
+      <c r="E100" s="1">
+        <v>7714</v>
       </c>
       <c r="F100" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="G100" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="H100" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
     </row>
     <row r="101" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A101">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="B101" t="s">
-        <v>153</v>
+        <v>37</v>
       </c>
       <c r="C101" t="s">
-        <v>228</v>
-      </c>
-      <c r="D101" s="4" t="s">
-        <v>169</v>
-      </c>
-      <c r="E101" s="3"/>
+        <v>32</v>
+      </c>
+      <c r="D101" t="s">
+        <v>5</v>
+      </c>
+      <c r="E101">
+        <v>1177</v>
+      </c>
+      <c r="F101" t="s">
+        <v>99</v>
+      </c>
+      <c r="G101" t="s">
+        <v>101</v>
+      </c>
+      <c r="H101" t="s">
+        <v>125</v>
+      </c>
     </row>
     <row r="102" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A102">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="B102" t="s">
-        <v>141</v>
+        <v>38</v>
       </c>
       <c r="C102" t="s">
-        <v>231</v>
-      </c>
-      <c r="D102" s="5" t="s">
-        <v>235</v>
-      </c>
-      <c r="E102" s="3"/>
+        <v>32</v>
+      </c>
+      <c r="D102" t="s">
+        <v>5</v>
+      </c>
+      <c r="E102">
+        <v>1127</v>
+      </c>
+      <c r="F102" t="s">
+        <v>99</v>
+      </c>
+      <c r="G102" t="s">
+        <v>101</v>
+      </c>
+      <c r="H102" t="s">
+        <v>125</v>
+      </c>
     </row>
     <row r="103" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A103">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="B103" t="s">
-        <v>229</v>
+        <v>39</v>
       </c>
       <c r="C103" t="s">
-        <v>232</v>
-      </c>
-      <c r="D103" s="5" t="s">
-        <v>235</v>
-      </c>
-      <c r="E103" s="3"/>
+        <v>32</v>
+      </c>
+      <c r="D103" t="s">
+        <v>5</v>
+      </c>
+      <c r="E103">
+        <v>2134</v>
+      </c>
+      <c r="F103" t="s">
+        <v>99</v>
+      </c>
+      <c r="G103" t="s">
+        <v>101</v>
+      </c>
+      <c r="H103" t="s">
+        <v>125</v>
+      </c>
     </row>
     <row r="104" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A104">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="B104" t="s">
-        <v>230</v>
+        <v>40</v>
       </c>
       <c r="C104" t="s">
-        <v>233</v>
-      </c>
-      <c r="D104" s="5" t="s">
-        <v>235</v>
-      </c>
-      <c r="E104" s="3"/>
+        <v>34</v>
+      </c>
+      <c r="D104" t="s">
+        <v>5</v>
+      </c>
+      <c r="E104">
+        <v>1717</v>
+      </c>
+      <c r="F104" t="s">
+        <v>99</v>
+      </c>
+      <c r="G104" t="s">
+        <v>101</v>
+      </c>
+      <c r="H104" t="s">
+        <v>125</v>
+      </c>
     </row>
     <row r="105" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A105">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="B105" t="s">
-        <v>154</v>
+        <v>41</v>
       </c>
       <c r="C105" t="s">
-        <v>234</v>
-      </c>
-      <c r="D105" s="5" t="s">
-        <v>236</v>
-      </c>
-      <c r="E105" s="3"/>
+        <v>34</v>
+      </c>
+      <c r="D105" t="s">
+        <v>5</v>
+      </c>
+      <c r="E105">
+        <v>1244</v>
+      </c>
+      <c r="F105" t="s">
+        <v>99</v>
+      </c>
+      <c r="G105" t="s">
+        <v>101</v>
+      </c>
+      <c r="H105" t="s">
+        <v>125</v>
+      </c>
     </row>
     <row r="106" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A106">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="B106" t="s">
-        <v>237</v>
+        <v>42</v>
       </c>
       <c r="C106" t="s">
-        <v>238</v>
-      </c>
-      <c r="D106" s="7" t="s">
-        <v>239</v>
-      </c>
-      <c r="E106" s="3"/>
+        <v>34</v>
+      </c>
+      <c r="D106" t="s">
+        <v>5</v>
+      </c>
+      <c r="E106">
+        <v>1165</v>
+      </c>
+      <c r="F106" t="s">
+        <v>99</v>
+      </c>
+      <c r="G106" t="s">
+        <v>101</v>
+      </c>
+      <c r="H106" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="107" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A107">
+        <v>10</v>
+      </c>
+      <c r="B107" t="s">
+        <v>43</v>
+      </c>
+      <c r="C107" t="s">
+        <v>32</v>
+      </c>
+      <c r="D107" t="s">
+        <v>5</v>
+      </c>
+      <c r="E107">
+        <v>1111</v>
+      </c>
+      <c r="F107" t="s">
+        <v>99</v>
+      </c>
+      <c r="G107" t="s">
+        <v>101</v>
+      </c>
+      <c r="H107" t="s">
+        <v>125</v>
+      </c>
     </row>
     <row r="108" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A108" t="s">
-        <v>163</v>
+      <c r="A108">
+        <v>11</v>
       </c>
       <c r="B108" t="s">
-        <v>263</v>
+        <v>44</v>
       </c>
       <c r="C108" t="s">
-        <v>262</v>
+        <v>32</v>
+      </c>
+      <c r="D108" t="s">
+        <v>5</v>
+      </c>
+      <c r="E108">
+        <v>1924</v>
+      </c>
+      <c r="F108" t="s">
+        <v>99</v>
+      </c>
+      <c r="G108" t="s">
+        <v>101</v>
+      </c>
+      <c r="H108" t="s">
+        <v>125</v>
       </c>
     </row>
     <row r="109" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A109">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="B109" t="s">
-        <v>271</v>
+        <v>154</v>
       </c>
       <c r="C109" t="s">
-        <v>272</v>
-      </c>
+        <v>229</v>
+      </c>
+      <c r="D109" s="4" t="s">
+        <v>170</v>
+      </c>
+      <c r="E109" s="3"/>
+    </row>
+    <row r="110" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A110">
+        <v>13</v>
+      </c>
+      <c r="B110" t="s">
+        <v>141</v>
+      </c>
+      <c r="C110" t="s">
+        <v>232</v>
+      </c>
+      <c r="D110" s="5" t="s">
+        <v>236</v>
+      </c>
+      <c r="E110" s="3"/>
     </row>
     <row r="111" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A111" t="s">
+      <c r="A111">
+        <v>14</v>
+      </c>
+      <c r="B111" t="s">
+        <v>230</v>
+      </c>
+      <c r="C111" t="s">
+        <v>233</v>
+      </c>
+      <c r="D111" s="5" t="s">
+        <v>236</v>
+      </c>
+      <c r="E111" s="3"/>
+    </row>
+    <row r="112" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A112">
+        <v>15</v>
+      </c>
+      <c r="B112" t="s">
+        <v>231</v>
+      </c>
+      <c r="C112" t="s">
+        <v>234</v>
+      </c>
+      <c r="D112" s="5" t="s">
+        <v>236</v>
+      </c>
+      <c r="E112" s="3"/>
+    </row>
+    <row r="113" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A113">
+        <v>16</v>
+      </c>
+      <c r="B113" t="s">
+        <v>155</v>
+      </c>
+      <c r="C113" t="s">
+        <v>235</v>
+      </c>
+      <c r="D113" s="5" t="s">
+        <v>237</v>
+      </c>
+      <c r="E113" s="3"/>
+    </row>
+    <row r="114" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A114">
+        <v>17</v>
+      </c>
+      <c r="B114" t="s">
+        <v>238</v>
+      </c>
+      <c r="C114" t="s">
+        <v>239</v>
+      </c>
+      <c r="D114" s="7" t="s">
+        <v>240</v>
+      </c>
+      <c r="E114" s="3"/>
+    </row>
+    <row r="116" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A116" t="s">
+        <v>164</v>
+      </c>
+      <c r="B116" t="s">
         <v>264</v>
       </c>
-      <c r="B111" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="114" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B114" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="115" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A115" t="s">
-        <v>163</v>
-      </c>
-      <c r="B115" t="s">
-        <v>1</v>
-      </c>
-      <c r="C115" t="s">
-        <v>2</v>
-      </c>
-      <c r="D115" t="s">
-        <v>165</v>
-      </c>
-      <c r="E115" t="s">
-        <v>7</v>
-      </c>
-      <c r="F115" t="s">
-        <v>86</v>
-      </c>
-      <c r="G115" t="s">
-        <v>87</v>
-      </c>
-      <c r="H115" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="116" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A116">
-        <v>1</v>
-      </c>
-      <c r="B116" t="s">
-        <v>46</v>
-      </c>
       <c r="C116" t="s">
-        <v>47</v>
-      </c>
-      <c r="D116" t="s">
-        <v>5</v>
-      </c>
-      <c r="E116" s="1">
-        <v>6378</v>
-      </c>
-      <c r="F116" t="s">
-        <v>103</v>
-      </c>
-      <c r="G116" t="s">
-        <v>106</v>
-      </c>
-      <c r="H116" t="s">
-        <v>125</v>
+        <v>263</v>
       </c>
     </row>
     <row r="117" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A117">
+        <v>18</v>
+      </c>
+      <c r="B117" t="s">
+        <v>272</v>
+      </c>
+      <c r="C117" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="119" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A119" t="s">
+        <v>265</v>
+      </c>
+      <c r="B119" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="120" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A120" t="s">
+        <v>285</v>
+      </c>
+      <c r="B120" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="121" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A121" t="s">
+        <v>305</v>
+      </c>
+      <c r="B121" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="122" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A122" t="s">
+        <v>306</v>
+      </c>
+      <c r="B122" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="123" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A123" t="s">
+        <v>307</v>
+      </c>
+      <c r="B123" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="127" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B127" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="128" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A128" t="s">
+        <v>164</v>
+      </c>
+      <c r="B128" t="s">
+        <v>1</v>
+      </c>
+      <c r="C128" t="s">
         <v>2</v>
       </c>
-      <c r="B117" t="s">
-        <v>48</v>
-      </c>
-      <c r="C117" t="s">
-        <v>49</v>
-      </c>
-      <c r="D117" t="s">
-        <v>5</v>
-      </c>
-      <c r="E117">
-        <v>3232</v>
-      </c>
-      <c r="F117" t="s">
-        <v>103</v>
-      </c>
-      <c r="G117" t="s">
-        <v>106</v>
-      </c>
-      <c r="H117" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="118" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A118">
-        <v>3</v>
-      </c>
-      <c r="B118" t="s">
-        <v>50</v>
-      </c>
-      <c r="C118" t="s">
-        <v>51</v>
-      </c>
-      <c r="D118" t="s">
-        <v>5</v>
-      </c>
-      <c r="E118">
-        <v>1043</v>
-      </c>
-      <c r="F118" t="s">
-        <v>103</v>
-      </c>
-      <c r="G118" t="s">
-        <v>107</v>
-      </c>
-      <c r="H118" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="119" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A119">
-        <v>4</v>
-      </c>
-      <c r="B119" t="s">
-        <v>52</v>
-      </c>
-      <c r="C119" t="s">
-        <v>53</v>
-      </c>
-      <c r="D119" t="s">
-        <v>5</v>
-      </c>
-      <c r="E119">
-        <v>2171</v>
-      </c>
-      <c r="F119" t="s">
-        <v>104</v>
-      </c>
-      <c r="G119" t="s">
-        <v>108</v>
-      </c>
-      <c r="H119" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="120" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A120">
-        <v>5</v>
-      </c>
-      <c r="B120" t="s">
-        <v>54</v>
-      </c>
-      <c r="C120" t="s">
-        <v>55</v>
-      </c>
-      <c r="D120" t="s">
-        <v>5</v>
-      </c>
-      <c r="E120">
-        <v>2611</v>
-      </c>
-      <c r="F120" t="s">
-        <v>105</v>
-      </c>
-      <c r="G120" t="s">
-        <v>109</v>
-      </c>
-      <c r="H120" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="121" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A121">
-        <v>6</v>
-      </c>
-      <c r="B121" t="s">
-        <v>56</v>
-      </c>
-      <c r="C121" t="s">
-        <v>47</v>
-      </c>
-      <c r="D121" t="s">
-        <v>5</v>
-      </c>
-      <c r="E121" s="1">
-        <v>7432</v>
-      </c>
-      <c r="F121" t="s">
-        <v>103</v>
-      </c>
-      <c r="G121" t="s">
-        <v>106</v>
-      </c>
-      <c r="H121" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="122" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A122">
+      <c r="D128" t="s">
+        <v>166</v>
+      </c>
+      <c r="E128" t="s">
         <v>7</v>
       </c>
-      <c r="B122" t="s">
-        <v>57</v>
-      </c>
-      <c r="C122" t="s">
-        <v>58</v>
-      </c>
-      <c r="D122" t="s">
-        <v>5</v>
-      </c>
-      <c r="E122">
-        <v>2012</v>
-      </c>
-      <c r="F122" t="s">
-        <v>103</v>
-      </c>
-      <c r="G122" t="s">
-        <v>106</v>
-      </c>
-      <c r="H122" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="123" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A123">
-        <v>8</v>
-      </c>
-      <c r="B123" t="s">
-        <v>59</v>
-      </c>
-      <c r="C123" t="s">
-        <v>60</v>
-      </c>
-      <c r="D123" t="s">
-        <v>5</v>
-      </c>
-      <c r="E123">
-        <v>1694</v>
-      </c>
-      <c r="F123" t="s">
-        <v>103</v>
-      </c>
-      <c r="G123" t="s">
-        <v>106</v>
-      </c>
-      <c r="H123" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="124" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A124">
-        <v>9</v>
-      </c>
-      <c r="B124" t="s">
-        <v>61</v>
-      </c>
-      <c r="C124" t="s">
-        <v>55</v>
-      </c>
-      <c r="D124" t="s">
-        <v>5</v>
-      </c>
-      <c r="E124">
-        <v>1200</v>
-      </c>
-      <c r="F124" t="s">
-        <v>104</v>
-      </c>
-      <c r="G124" t="s">
-        <v>108</v>
-      </c>
-      <c r="H124" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="125" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A125">
-        <v>10</v>
-      </c>
-      <c r="B125" t="s">
-        <v>62</v>
-      </c>
-      <c r="C125" t="s">
-        <v>53</v>
-      </c>
-      <c r="D125" t="s">
-        <v>5</v>
-      </c>
-      <c r="E125">
-        <v>2961</v>
-      </c>
-      <c r="F125" t="s">
-        <v>104</v>
-      </c>
-      <c r="G125" t="s">
-        <v>108</v>
-      </c>
-      <c r="H125" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="126" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A126">
-        <v>11</v>
-      </c>
-      <c r="B126" t="s">
-        <v>63</v>
-      </c>
-      <c r="C126" t="s">
-        <v>53</v>
-      </c>
-      <c r="D126" t="s">
-        <v>5</v>
-      </c>
-      <c r="E126">
-        <v>1884</v>
-      </c>
-      <c r="F126" t="s">
-        <v>104</v>
-      </c>
-      <c r="G126" t="s">
-        <v>108</v>
-      </c>
-      <c r="H126" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="127" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A127">
-        <v>12</v>
-      </c>
-      <c r="B127" t="s">
-        <v>64</v>
-      </c>
-      <c r="C127" t="s">
-        <v>53</v>
-      </c>
-      <c r="D127" t="s">
-        <v>5</v>
-      </c>
-      <c r="E127">
-        <v>1266</v>
-      </c>
-      <c r="F127" t="s">
-        <v>104</v>
-      </c>
-      <c r="G127" t="s">
-        <v>108</v>
-      </c>
-      <c r="H127" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="128" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A128">
-        <v>13</v>
-      </c>
-      <c r="B128" t="s">
-        <v>65</v>
-      </c>
-      <c r="C128" t="s">
-        <v>53</v>
-      </c>
-      <c r="D128" t="s">
-        <v>5</v>
-      </c>
-      <c r="E128">
-        <v>1146</v>
-      </c>
       <c r="F128" t="s">
-        <v>104</v>
+        <v>86</v>
       </c>
       <c r="G128" t="s">
-        <v>108</v>
+        <v>87</v>
       </c>
       <c r="H128" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
     </row>
     <row r="129" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A129">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="B129" t="s">
-        <v>66</v>
+        <v>46</v>
       </c>
       <c r="C129" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="D129" t="s">
         <v>5</v>
       </c>
-      <c r="E129">
-        <v>1014</v>
+      <c r="E129" s="1">
+        <v>6378</v>
       </c>
       <c r="F129" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="G129" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="H129" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
     <row r="130" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A130">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="B130" t="s">
-        <v>166</v>
+        <v>48</v>
       </c>
       <c r="C130" t="s">
-        <v>167</v>
-      </c>
-      <c r="D130" s="7" t="s">
-        <v>169</v>
-      </c>
-      <c r="E130" s="3"/>
+        <v>49</v>
+      </c>
+      <c r="D130" t="s">
+        <v>5</v>
+      </c>
+      <c r="E130">
+        <v>3232</v>
+      </c>
+      <c r="F130" t="s">
+        <v>103</v>
+      </c>
+      <c r="G130" t="s">
+        <v>106</v>
+      </c>
+      <c r="H130" t="s">
+        <v>125</v>
+      </c>
     </row>
     <row r="131" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A131">
-        <v>16</v>
+        <v>3</v>
       </c>
       <c r="B131" t="s">
-        <v>155</v>
+        <v>50</v>
       </c>
       <c r="C131" t="s">
-        <v>168</v>
-      </c>
-      <c r="D131" s="7" t="s">
-        <v>169</v>
-      </c>
-      <c r="E131" s="3"/>
+        <v>51</v>
+      </c>
+      <c r="D131" t="s">
+        <v>5</v>
+      </c>
+      <c r="E131">
+        <v>1043</v>
+      </c>
+      <c r="F131" t="s">
+        <v>103</v>
+      </c>
+      <c r="G131" t="s">
+        <v>107</v>
+      </c>
+      <c r="H131" t="s">
+        <v>127</v>
+      </c>
     </row>
     <row r="132" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A132">
-        <v>17</v>
+        <v>4</v>
       </c>
       <c r="B132" t="s">
-        <v>139</v>
+        <v>52</v>
       </c>
       <c r="C132" t="s">
-        <v>170</v>
-      </c>
-      <c r="D132" s="5" t="s">
-        <v>174</v>
-      </c>
-      <c r="E132" s="3"/>
+        <v>53</v>
+      </c>
+      <c r="D132" t="s">
+        <v>5</v>
+      </c>
+      <c r="E132">
+        <v>2171</v>
+      </c>
+      <c r="F132" t="s">
+        <v>104</v>
+      </c>
+      <c r="G132" t="s">
+        <v>108</v>
+      </c>
+      <c r="H132" t="s">
+        <v>127</v>
+      </c>
     </row>
     <row r="133" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A133">
-        <v>18</v>
+        <v>5</v>
       </c>
       <c r="B133" t="s">
-        <v>140</v>
+        <v>54</v>
       </c>
       <c r="C133" t="s">
-        <v>171</v>
-      </c>
-      <c r="D133" s="5" t="s">
-        <v>174</v>
-      </c>
-      <c r="E133" s="3"/>
+        <v>55</v>
+      </c>
+      <c r="D133" t="s">
+        <v>5</v>
+      </c>
+      <c r="E133">
+        <v>2611</v>
+      </c>
+      <c r="F133" t="s">
+        <v>105</v>
+      </c>
+      <c r="G133" t="s">
+        <v>109</v>
+      </c>
+      <c r="H133" t="s">
+        <v>127</v>
+      </c>
     </row>
     <row r="134" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A134">
-        <v>19</v>
+        <v>6</v>
       </c>
       <c r="B134" t="s">
-        <v>156</v>
+        <v>56</v>
       </c>
       <c r="C134" t="s">
-        <v>175</v>
-      </c>
-      <c r="D134" s="7" t="s">
-        <v>169</v>
-      </c>
-      <c r="E134" s="3"/>
+        <v>47</v>
+      </c>
+      <c r="D134" t="s">
+        <v>5</v>
+      </c>
+      <c r="E134" s="1">
+        <v>7432</v>
+      </c>
+      <c r="F134" t="s">
+        <v>103</v>
+      </c>
+      <c r="G134" t="s">
+        <v>106</v>
+      </c>
+      <c r="H134" t="s">
+        <v>125</v>
+      </c>
     </row>
     <row r="135" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A135">
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="B135" t="s">
-        <v>172</v>
+        <v>57</v>
       </c>
       <c r="C135" t="s">
-        <v>176</v>
-      </c>
-      <c r="D135" s="7" t="s">
-        <v>169</v>
-      </c>
-      <c r="E135" s="3"/>
+        <v>58</v>
+      </c>
+      <c r="D135" t="s">
+        <v>5</v>
+      </c>
+      <c r="E135">
+        <v>2012</v>
+      </c>
+      <c r="F135" t="s">
+        <v>103</v>
+      </c>
+      <c r="G135" t="s">
+        <v>106</v>
+      </c>
+      <c r="H135" t="s">
+        <v>125</v>
+      </c>
     </row>
     <row r="136" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A136">
-        <v>21</v>
+        <v>8</v>
       </c>
       <c r="B136" t="s">
-        <v>173</v>
+        <v>59</v>
       </c>
       <c r="C136" t="s">
-        <v>177</v>
-      </c>
-      <c r="D136" s="7" t="s">
-        <v>169</v>
-      </c>
-      <c r="E136" s="3"/>
+        <v>60</v>
+      </c>
+      <c r="D136" t="s">
+        <v>5</v>
+      </c>
+      <c r="E136">
+        <v>1694</v>
+      </c>
+      <c r="F136" t="s">
+        <v>103</v>
+      </c>
+      <c r="G136" t="s">
+        <v>106</v>
+      </c>
+      <c r="H136" t="s">
+        <v>125</v>
+      </c>
     </row>
     <row r="137" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A137">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="B137" t="s">
-        <v>178</v>
+        <v>61</v>
       </c>
       <c r="C137" t="s">
-        <v>179</v>
-      </c>
-      <c r="D137" s="1" t="s">
-        <v>180</v>
-      </c>
-      <c r="E137" s="3"/>
+        <v>55</v>
+      </c>
+      <c r="D137" t="s">
+        <v>5</v>
+      </c>
+      <c r="E137">
+        <v>1200</v>
+      </c>
+      <c r="F137" t="s">
+        <v>104</v>
+      </c>
+      <c r="G137" t="s">
+        <v>108</v>
+      </c>
+      <c r="H137" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="138" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A138">
+        <v>10</v>
+      </c>
+      <c r="B138" t="s">
+        <v>62</v>
+      </c>
+      <c r="C138" t="s">
+        <v>53</v>
+      </c>
+      <c r="D138" t="s">
+        <v>5</v>
+      </c>
+      <c r="E138">
+        <v>2961</v>
+      </c>
+      <c r="F138" t="s">
+        <v>104</v>
+      </c>
+      <c r="G138" t="s">
+        <v>108</v>
+      </c>
+      <c r="H138" t="s">
+        <v>127</v>
+      </c>
     </row>
     <row r="139" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A139" t="s">
-        <v>163</v>
+      <c r="A139">
+        <v>11</v>
       </c>
       <c r="B139" t="s">
-        <v>263</v>
+        <v>63</v>
       </c>
       <c r="C139" t="s">
-        <v>262</v>
+        <v>53</v>
+      </c>
+      <c r="D139" t="s">
+        <v>5</v>
+      </c>
+      <c r="E139">
+        <v>1884</v>
+      </c>
+      <c r="F139" t="s">
+        <v>104</v>
+      </c>
+      <c r="G139" t="s">
+        <v>108</v>
+      </c>
+      <c r="H139" t="s">
+        <v>127</v>
       </c>
     </row>
     <row r="140" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A140">
+        <v>12</v>
+      </c>
+      <c r="B140" t="s">
+        <v>64</v>
+      </c>
+      <c r="C140" t="s">
+        <v>53</v>
+      </c>
+      <c r="D140" t="s">
+        <v>5</v>
+      </c>
+      <c r="E140">
+        <v>1266</v>
+      </c>
+      <c r="F140" t="s">
+        <v>104</v>
+      </c>
+      <c r="G140" t="s">
+        <v>108</v>
+      </c>
+      <c r="H140" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="141" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A141">
+        <v>13</v>
+      </c>
+      <c r="B141" t="s">
+        <v>65</v>
+      </c>
+      <c r="C141" t="s">
+        <v>53</v>
+      </c>
+      <c r="D141" t="s">
+        <v>5</v>
+      </c>
+      <c r="E141">
+        <v>1146</v>
+      </c>
+      <c r="F141" t="s">
+        <v>104</v>
+      </c>
+      <c r="G141" t="s">
+        <v>108</v>
+      </c>
+      <c r="H141" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="142" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A142">
+        <v>14</v>
+      </c>
+      <c r="B142" t="s">
+        <v>66</v>
+      </c>
+      <c r="C142" t="s">
+        <v>53</v>
+      </c>
+      <c r="D142" t="s">
+        <v>5</v>
+      </c>
+      <c r="E142">
+        <v>1014</v>
+      </c>
+      <c r="F142" t="s">
+        <v>104</v>
+      </c>
+      <c r="G142" t="s">
+        <v>108</v>
+      </c>
+      <c r="H142" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="143" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A143">
+        <v>15</v>
+      </c>
+      <c r="B143" t="s">
+        <v>167</v>
+      </c>
+      <c r="C143" t="s">
+        <v>168</v>
+      </c>
+      <c r="D143" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="E143" s="3"/>
+    </row>
+    <row r="144" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A144">
+        <v>16</v>
+      </c>
+      <c r="B144" t="s">
+        <v>156</v>
+      </c>
+      <c r="C144" t="s">
+        <v>169</v>
+      </c>
+      <c r="D144" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="E144" s="3"/>
+    </row>
+    <row r="145" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A145">
+        <v>17</v>
+      </c>
+      <c r="B145" t="s">
+        <v>139</v>
+      </c>
+      <c r="C145" t="s">
+        <v>171</v>
+      </c>
+      <c r="D145" s="5" t="s">
+        <v>175</v>
+      </c>
+      <c r="E145" s="3"/>
+    </row>
+    <row r="146" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A146">
+        <v>18</v>
+      </c>
+      <c r="B146" t="s">
+        <v>140</v>
+      </c>
+      <c r="C146" t="s">
+        <v>172</v>
+      </c>
+      <c r="D146" s="5" t="s">
+        <v>175</v>
+      </c>
+      <c r="E146" s="3"/>
+    </row>
+    <row r="147" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A147">
+        <v>19</v>
+      </c>
+      <c r="B147" t="s">
+        <v>157</v>
+      </c>
+      <c r="C147" t="s">
+        <v>176</v>
+      </c>
+      <c r="D147" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="E147" s="3"/>
+    </row>
+    <row r="148" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A148">
+        <v>20</v>
+      </c>
+      <c r="B148" t="s">
+        <v>173</v>
+      </c>
+      <c r="C148" t="s">
+        <v>177</v>
+      </c>
+      <c r="D148" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="E148" s="3"/>
+    </row>
+    <row r="149" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A149">
+        <v>21</v>
+      </c>
+      <c r="B149" t="s">
+        <v>174</v>
+      </c>
+      <c r="C149" t="s">
+        <v>178</v>
+      </c>
+      <c r="D149" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="E149" s="3"/>
+    </row>
+    <row r="150" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A150">
+        <v>22</v>
+      </c>
+      <c r="B150" t="s">
+        <v>179</v>
+      </c>
+      <c r="C150" t="s">
+        <v>180</v>
+      </c>
+      <c r="D150" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="E150" s="3"/>
+    </row>
+    <row r="152" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A152" t="s">
+        <v>164</v>
+      </c>
+      <c r="B152" t="s">
+        <v>264</v>
+      </c>
+      <c r="C152" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="153" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A153">
         <v>23</v>
       </c>
-      <c r="B140" t="s">
-        <v>274</v>
-      </c>
-      <c r="C140" t="s">
+      <c r="B153" t="s">
         <v>275</v>
       </c>
-    </row>
-    <row r="143" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A143" t="s">
-        <v>264</v>
-      </c>
-      <c r="B143" t="s">
+      <c r="C153" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="154" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A154">
+        <v>24</v>
+      </c>
+      <c r="B154" t="s">
+        <v>279</v>
+      </c>
+      <c r="C154" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="156" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A156" t="s">
         <v>265</v>
       </c>
-    </row>
-    <row r="146" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B146" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="147" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A147" t="s">
-        <v>163</v>
-      </c>
-      <c r="B147" t="s">
-        <v>1</v>
-      </c>
-      <c r="C147" t="s">
-        <v>2</v>
-      </c>
-      <c r="D147" t="s">
-        <v>165</v>
-      </c>
-      <c r="E147" t="s">
-        <v>7</v>
-      </c>
-      <c r="F147" t="s">
-        <v>86</v>
-      </c>
-      <c r="G147" t="s">
-        <v>87</v>
-      </c>
-      <c r="H147" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="148" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A148">
-        <v>1</v>
-      </c>
-      <c r="B148" t="s">
-        <v>68</v>
-      </c>
-      <c r="C148" t="s">
-        <v>69</v>
-      </c>
-      <c r="D148" t="s">
-        <v>5</v>
-      </c>
-      <c r="E148" s="1">
-        <v>7085</v>
-      </c>
-      <c r="F148" t="s">
-        <v>110</v>
-      </c>
-      <c r="G148" t="s">
-        <v>111</v>
-      </c>
-      <c r="H148" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="149" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A149">
-        <v>2</v>
-      </c>
-      <c r="B149" t="s">
-        <v>70</v>
-      </c>
-      <c r="C149" t="s">
-        <v>71</v>
-      </c>
-      <c r="D149" t="s">
-        <v>5</v>
-      </c>
-      <c r="E149" s="1">
-        <v>7294</v>
-      </c>
-      <c r="F149" t="s">
-        <v>110</v>
-      </c>
-      <c r="G149" t="s">
-        <v>112</v>
-      </c>
-      <c r="H149" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="150" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A150">
-        <v>3</v>
-      </c>
-      <c r="B150" t="s">
-        <v>72</v>
-      </c>
-      <c r="C150" t="s">
-        <v>73</v>
-      </c>
-      <c r="D150" t="s">
-        <v>5</v>
-      </c>
-      <c r="E150" s="1">
-        <v>7228</v>
-      </c>
-      <c r="F150" t="s">
-        <v>110</v>
-      </c>
-      <c r="G150" t="s">
-        <v>111</v>
-      </c>
-      <c r="H150" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="151" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A151">
-        <v>4</v>
-      </c>
-      <c r="B151" t="s">
-        <v>136</v>
-      </c>
-      <c r="C151" t="s">
-        <v>240</v>
-      </c>
-      <c r="D151" s="6" t="s">
-        <v>236</v>
-      </c>
-      <c r="E151" s="3"/>
-    </row>
-    <row r="152" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A152">
-        <v>5</v>
-      </c>
-      <c r="B152" t="s">
-        <v>241</v>
-      </c>
-      <c r="C152" t="s">
-        <v>240</v>
-      </c>
-      <c r="D152" s="6" t="s">
-        <v>235</v>
-      </c>
-      <c r="E152" s="3"/>
-    </row>
-    <row r="153" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A153">
-        <v>6</v>
-      </c>
-      <c r="B153" t="s">
-        <v>157</v>
-      </c>
-      <c r="C153" t="s">
-        <v>242</v>
-      </c>
-      <c r="D153" s="6" t="s">
-        <v>236</v>
-      </c>
-      <c r="E153" s="3"/>
-    </row>
-    <row r="154" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A154">
-        <v>7</v>
-      </c>
-      <c r="B154" t="s">
-        <v>138</v>
-      </c>
-      <c r="C154" t="s">
-        <v>243</v>
-      </c>
-      <c r="D154" s="6" t="s">
-        <v>236</v>
-      </c>
-      <c r="E154" s="3"/>
-    </row>
-    <row r="155" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A155">
-        <v>8</v>
-      </c>
-      <c r="B155" t="s">
-        <v>137</v>
-      </c>
-      <c r="C155" t="s">
-        <v>244</v>
-      </c>
-      <c r="D155" s="4" t="s">
-        <v>245</v>
-      </c>
-      <c r="E155" s="3"/>
-    </row>
-    <row r="156" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A156">
-        <v>9</v>
-      </c>
       <c r="B156" t="s">
-        <v>246</v>
-      </c>
-      <c r="C156" t="s">
-        <v>247</v>
-      </c>
-      <c r="D156" s="2" t="s">
-        <v>248</v>
-      </c>
-      <c r="E156" s="3"/>
-    </row>
-    <row r="158" spans="1:8" x14ac:dyDescent="0.2">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="157" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A157" t="s">
+        <v>286</v>
+      </c>
+      <c r="B157" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="158" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A158" t="s">
-        <v>163</v>
+        <v>311</v>
       </c>
       <c r="B158" t="s">
-        <v>263</v>
-      </c>
-      <c r="C158" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="159" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A159">
-        <v>10</v>
+        <v>314</v>
+      </c>
+    </row>
+    <row r="159" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A159" t="s">
+        <v>312</v>
       </c>
       <c r="B159" t="s">
-        <v>110</v>
-      </c>
-      <c r="C159" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="161" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A161" t="s">
-        <v>264</v>
-      </c>
-      <c r="B161" t="s">
-        <v>265</v>
+        <v>315</v>
+      </c>
+    </row>
+    <row r="160" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A160" t="s">
+        <v>313</v>
+      </c>
+      <c r="B160" t="s">
+        <v>316</v>
       </c>
     </row>
     <row r="164" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B164" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
     </row>
     <row r="165" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A165" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="B165" t="s">
         <v>1</v>
@@ -3549,7 +3586,7 @@
         <v>2</v>
       </c>
       <c r="D165" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="E165" t="s">
         <v>7</v>
@@ -3569,25 +3606,25 @@
         <v>1</v>
       </c>
       <c r="B166" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="C166" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="D166" t="s">
         <v>5</v>
       </c>
       <c r="E166" s="1">
-        <v>7280</v>
+        <v>7085</v>
       </c>
       <c r="F166" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="G166" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="H166" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
     </row>
     <row r="167" spans="1:8" x14ac:dyDescent="0.2">
@@ -3595,25 +3632,25 @@
         <v>2</v>
       </c>
       <c r="B167" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="C167" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="D167" t="s">
         <v>5</v>
       </c>
       <c r="E167" s="1">
-        <v>7614</v>
+        <v>7294</v>
       </c>
       <c r="F167" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="G167" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="H167" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="168" spans="1:8" x14ac:dyDescent="0.2">
@@ -3621,25 +3658,25 @@
         <v>3</v>
       </c>
       <c r="B168" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="C168" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="D168" t="s">
         <v>5</v>
       </c>
-      <c r="E168">
-        <v>1028</v>
+      <c r="E168" s="1">
+        <v>7228</v>
       </c>
       <c r="F168" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="G168" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="H168" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
     </row>
     <row r="169" spans="1:8" x14ac:dyDescent="0.2">
@@ -3647,117 +3684,73 @@
         <v>4</v>
       </c>
       <c r="B169" t="s">
-        <v>80</v>
+        <v>136</v>
       </c>
       <c r="C169" t="s">
-        <v>81</v>
-      </c>
-      <c r="D169" t="s">
-        <v>5</v>
-      </c>
-      <c r="E169" s="1">
-        <v>7513</v>
-      </c>
-      <c r="F169" t="s">
-        <v>113</v>
-      </c>
-      <c r="G169" t="s">
-        <v>116</v>
-      </c>
-      <c r="H169" t="s">
-        <v>129</v>
-      </c>
+        <v>241</v>
+      </c>
+      <c r="D169" s="6" t="s">
+        <v>237</v>
+      </c>
+      <c r="E169" s="3"/>
     </row>
     <row r="170" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A170">
         <v>5</v>
       </c>
       <c r="B170" t="s">
-        <v>82</v>
+        <v>242</v>
       </c>
       <c r="C170" t="s">
-        <v>81</v>
-      </c>
-      <c r="D170" t="s">
-        <v>5</v>
-      </c>
-      <c r="E170">
-        <v>2410</v>
-      </c>
-      <c r="F170" t="s">
-        <v>114</v>
-      </c>
-      <c r="G170" t="s">
-        <v>118</v>
-      </c>
-      <c r="H170" t="s">
-        <v>131</v>
-      </c>
+        <v>241</v>
+      </c>
+      <c r="D170" s="6" t="s">
+        <v>236</v>
+      </c>
+      <c r="E170" s="3"/>
     </row>
     <row r="171" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A171">
         <v>6</v>
       </c>
       <c r="B171" t="s">
-        <v>83</v>
+        <v>158</v>
       </c>
       <c r="C171" t="s">
-        <v>81</v>
-      </c>
-      <c r="D171" t="s">
-        <v>5</v>
-      </c>
-      <c r="E171">
-        <v>2384</v>
-      </c>
-      <c r="F171" t="s">
-        <v>114</v>
-      </c>
-      <c r="G171" t="s">
-        <v>119</v>
-      </c>
-      <c r="H171" t="s">
-        <v>132</v>
-      </c>
+        <v>243</v>
+      </c>
+      <c r="D171" s="6" t="s">
+        <v>237</v>
+      </c>
+      <c r="E171" s="3"/>
     </row>
     <row r="172" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A172">
         <v>7</v>
       </c>
       <c r="B172" t="s">
-        <v>84</v>
+        <v>138</v>
       </c>
       <c r="C172" t="s">
-        <v>81</v>
-      </c>
-      <c r="D172" t="s">
-        <v>5</v>
-      </c>
-      <c r="E172">
-        <v>1160</v>
-      </c>
-      <c r="F172" t="s">
-        <v>114</v>
-      </c>
-      <c r="G172" t="s">
-        <v>120</v>
-      </c>
-      <c r="H172" t="s">
-        <v>133</v>
-      </c>
+        <v>244</v>
+      </c>
+      <c r="D172" s="6" t="s">
+        <v>237</v>
+      </c>
+      <c r="E172" s="3"/>
     </row>
     <row r="173" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A173">
         <v>8</v>
       </c>
       <c r="B173" t="s">
-        <v>162</v>
+        <v>137</v>
       </c>
       <c r="C173" t="s">
-        <v>113</v>
-      </c>
-      <c r="D173" s="5" t="s">
-        <v>249</v>
+        <v>245</v>
+      </c>
+      <c r="D173" s="4" t="s">
+        <v>246</v>
       </c>
       <c r="E173" s="3"/>
     </row>
@@ -3766,163 +3759,484 @@
         <v>9</v>
       </c>
       <c r="B174" t="s">
-        <v>158</v>
+        <v>247</v>
       </c>
       <c r="C174" t="s">
+        <v>248</v>
+      </c>
+      <c r="D174" s="2" t="s">
+        <v>249</v>
+      </c>
+      <c r="E174" s="3"/>
+    </row>
+    <row r="176" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A176" t="s">
+        <v>164</v>
+      </c>
+      <c r="B176" t="s">
+        <v>264</v>
+      </c>
+      <c r="C176" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="177" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A177">
+        <v>10</v>
+      </c>
+      <c r="B177" t="s">
+        <v>110</v>
+      </c>
+      <c r="C177" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="179" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A179" t="s">
+        <v>265</v>
+      </c>
+      <c r="B179" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="180" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A180" t="s">
+        <v>287</v>
+      </c>
+      <c r="B180" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="181" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A181" t="s">
+        <v>295</v>
+      </c>
+      <c r="B181" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="185" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B185" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="186" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A186" t="s">
+        <v>164</v>
+      </c>
+      <c r="B186" t="s">
+        <v>1</v>
+      </c>
+      <c r="C186" t="s">
+        <v>2</v>
+      </c>
+      <c r="D186" t="s">
+        <v>166</v>
+      </c>
+      <c r="E186" t="s">
+        <v>7</v>
+      </c>
+      <c r="F186" t="s">
+        <v>86</v>
+      </c>
+      <c r="G186" t="s">
+        <v>87</v>
+      </c>
+      <c r="H186" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="187" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A187">
+        <v>1</v>
+      </c>
+      <c r="B187" t="s">
+        <v>75</v>
+      </c>
+      <c r="C187" t="s">
+        <v>76</v>
+      </c>
+      <c r="D187" t="s">
+        <v>5</v>
+      </c>
+      <c r="E187" s="1">
+        <v>7280</v>
+      </c>
+      <c r="F187" t="s">
+        <v>113</v>
+      </c>
+      <c r="G187" t="s">
+        <v>116</v>
+      </c>
+      <c r="H187" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="188" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A188">
+        <v>2</v>
+      </c>
+      <c r="B188" t="s">
+        <v>77</v>
+      </c>
+      <c r="C188" t="s">
+        <v>76</v>
+      </c>
+      <c r="D188" t="s">
+        <v>5</v>
+      </c>
+      <c r="E188" s="1">
+        <v>7614</v>
+      </c>
+      <c r="F188" t="s">
+        <v>113</v>
+      </c>
+      <c r="G188" t="s">
+        <v>116</v>
+      </c>
+      <c r="H188" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="189" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A189">
+        <v>3</v>
+      </c>
+      <c r="B189" t="s">
+        <v>78</v>
+      </c>
+      <c r="C189" t="s">
+        <v>79</v>
+      </c>
+      <c r="D189" t="s">
+        <v>5</v>
+      </c>
+      <c r="E189">
+        <v>1028</v>
+      </c>
+      <c r="F189" t="s">
+        <v>115</v>
+      </c>
+      <c r="G189" t="s">
+        <v>117</v>
+      </c>
+      <c r="H189" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="190" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A190">
+        <v>4</v>
+      </c>
+      <c r="B190" t="s">
+        <v>80</v>
+      </c>
+      <c r="C190" t="s">
+        <v>81</v>
+      </c>
+      <c r="D190" t="s">
+        <v>5</v>
+      </c>
+      <c r="E190" s="1">
+        <v>7513</v>
+      </c>
+      <c r="F190" t="s">
+        <v>113</v>
+      </c>
+      <c r="G190" t="s">
+        <v>116</v>
+      </c>
+      <c r="H190" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="191" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A191">
+        <v>5</v>
+      </c>
+      <c r="B191" t="s">
+        <v>82</v>
+      </c>
+      <c r="C191" t="s">
+        <v>81</v>
+      </c>
+      <c r="D191" t="s">
+        <v>5</v>
+      </c>
+      <c r="E191">
+        <v>2410</v>
+      </c>
+      <c r="F191" t="s">
         <v>114</v>
       </c>
-      <c r="D174" s="6" t="s">
+      <c r="G191" t="s">
+        <v>118</v>
+      </c>
+      <c r="H191" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="192" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A192">
+        <v>6</v>
+      </c>
+      <c r="B192" t="s">
+        <v>83</v>
+      </c>
+      <c r="C192" t="s">
+        <v>81</v>
+      </c>
+      <c r="D192" t="s">
+        <v>5</v>
+      </c>
+      <c r="E192">
+        <v>2384</v>
+      </c>
+      <c r="F192" t="s">
+        <v>114</v>
+      </c>
+      <c r="G192" t="s">
+        <v>119</v>
+      </c>
+      <c r="H192" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="193" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A193">
+        <v>7</v>
+      </c>
+      <c r="B193" t="s">
+        <v>84</v>
+      </c>
+      <c r="C193" t="s">
+        <v>81</v>
+      </c>
+      <c r="D193" t="s">
+        <v>5</v>
+      </c>
+      <c r="E193">
+        <v>1160</v>
+      </c>
+      <c r="F193" t="s">
+        <v>114</v>
+      </c>
+      <c r="G193" t="s">
+        <v>120</v>
+      </c>
+      <c r="H193" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="194" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A194">
+        <v>8</v>
+      </c>
+      <c r="B194" t="s">
+        <v>163</v>
+      </c>
+      <c r="C194" t="s">
+        <v>113</v>
+      </c>
+      <c r="D194" s="5" t="s">
         <v>250</v>
       </c>
-      <c r="E174" s="3"/>
-    </row>
-    <row r="175" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A175">
+      <c r="E194" s="3"/>
+    </row>
+    <row r="195" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A195">
+        <v>9</v>
+      </c>
+      <c r="B195" t="s">
+        <v>159</v>
+      </c>
+      <c r="C195" t="s">
+        <v>114</v>
+      </c>
+      <c r="D195" s="6" t="s">
+        <v>251</v>
+      </c>
+      <c r="E195" s="3"/>
+    </row>
+    <row r="196" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A196">
         <v>10</v>
       </c>
-      <c r="B175" t="s">
-        <v>159</v>
-      </c>
-      <c r="C175" t="s">
+      <c r="B196" t="s">
+        <v>160</v>
+      </c>
+      <c r="C196" t="s">
         <v>114</v>
       </c>
-      <c r="D175" s="6" t="s">
-        <v>250</v>
-      </c>
-      <c r="E175" s="3"/>
-    </row>
-    <row r="176" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A176">
+      <c r="D196" s="6" t="s">
+        <v>251</v>
+      </c>
+      <c r="E196" s="3"/>
+    </row>
+    <row r="197" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A197">
         <v>11</v>
       </c>
-      <c r="B176" t="s">
-        <v>160</v>
-      </c>
-      <c r="C176" t="s">
+      <c r="B197" t="s">
+        <v>161</v>
+      </c>
+      <c r="C197" t="s">
         <v>114</v>
       </c>
-      <c r="D176" s="6" t="s">
-        <v>251</v>
-      </c>
-      <c r="E176" s="3"/>
-    </row>
-    <row r="177" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A177">
+      <c r="D197" s="6" t="s">
+        <v>252</v>
+      </c>
+      <c r="E197" s="3"/>
+    </row>
+    <row r="198" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A198">
         <v>12</v>
       </c>
-      <c r="B177" t="s">
-        <v>161</v>
-      </c>
-      <c r="C177" t="s">
+      <c r="B198" t="s">
+        <v>162</v>
+      </c>
+      <c r="C198" t="s">
         <v>114</v>
       </c>
-      <c r="D177" s="6" t="s">
-        <v>252</v>
-      </c>
-      <c r="E177" s="3"/>
-    </row>
-    <row r="178" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A178">
+      <c r="D198" s="6" t="s">
+        <v>253</v>
+      </c>
+      <c r="E198" s="3"/>
+    </row>
+    <row r="199" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A199">
         <v>13</v>
       </c>
-      <c r="B178" t="s">
-        <v>253</v>
-      </c>
-      <c r="C178" t="s">
+      <c r="B199" t="s">
+        <v>254</v>
+      </c>
+      <c r="C199" t="s">
+        <v>257</v>
+      </c>
+      <c r="D199" s="4" t="s">
+        <v>260</v>
+      </c>
+      <c r="E199" s="3"/>
+    </row>
+    <row r="200" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A200">
+        <v>14</v>
+      </c>
+      <c r="B200" t="s">
+        <v>255</v>
+      </c>
+      <c r="C200" t="s">
+        <v>258</v>
+      </c>
+      <c r="D200" s="4" t="s">
+        <v>260</v>
+      </c>
+      <c r="E200" s="3"/>
+    </row>
+    <row r="201" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A201">
+        <v>15</v>
+      </c>
+      <c r="B201" t="s">
         <v>256</v>
       </c>
-      <c r="D178" s="4" t="s">
+      <c r="C201" t="s">
         <v>259</v>
       </c>
-      <c r="E178" s="3"/>
-    </row>
-    <row r="179" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A179">
-        <v>14</v>
-      </c>
-      <c r="B179" t="s">
-        <v>254</v>
-      </c>
-      <c r="C179" t="s">
-        <v>257</v>
-      </c>
-      <c r="D179" s="4" t="s">
-        <v>259</v>
-      </c>
-      <c r="E179" s="3"/>
-    </row>
-    <row r="180" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A180">
-        <v>15</v>
-      </c>
-      <c r="B180" t="s">
-        <v>255</v>
-      </c>
-      <c r="C180" t="s">
-        <v>258</v>
-      </c>
-      <c r="D180" s="4" t="s">
-        <v>259</v>
-      </c>
-      <c r="E180" s="3"/>
-    </row>
-    <row r="181" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A181">
+      <c r="D201" s="4" t="s">
+        <v>260</v>
+      </c>
+      <c r="E201" s="3"/>
+    </row>
+    <row r="202" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A202">
         <v>16</v>
       </c>
-      <c r="B181" t="s">
+      <c r="B202" t="s">
         <v>135</v>
       </c>
-      <c r="C181" t="s">
-        <v>260</v>
-      </c>
-      <c r="D181" s="4" t="s">
+      <c r="C202" t="s">
         <v>261</v>
       </c>
-      <c r="E181" s="3"/>
-    </row>
-    <row r="182" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="E182" s="3"/>
-    </row>
-    <row r="183" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A183" t="s">
-        <v>163</v>
-      </c>
-      <c r="B183" t="s">
+      <c r="D202" s="4" t="s">
+        <v>262</v>
+      </c>
+      <c r="E202" s="3"/>
+    </row>
+    <row r="203" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="E203" s="3"/>
+    </row>
+    <row r="204" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A204" t="s">
+        <v>164</v>
+      </c>
+      <c r="B204" t="s">
+        <v>264</v>
+      </c>
+      <c r="C204" t="s">
         <v>263</v>
       </c>
-      <c r="C183" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="184" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A184">
+    </row>
+    <row r="205" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A205">
         <v>17</v>
       </c>
-      <c r="B184" t="s">
+      <c r="B205" t="s">
         <v>114</v>
       </c>
-      <c r="C184" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="185" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A185">
+      <c r="C205" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="206" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A206">
         <v>18</v>
       </c>
-      <c r="B185" t="s">
+      <c r="B206" t="s">
         <v>134</v>
       </c>
-      <c r="C185" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="187" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A187" t="s">
-        <v>264</v>
-      </c>
-      <c r="B187" t="s">
+      <c r="C206" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="208" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A208" t="s">
         <v>265</v>
+      </c>
+      <c r="B208" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="209" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A209" t="s">
+        <v>288</v>
+      </c>
+      <c r="B209" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="210" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A210" t="s">
+        <v>317</v>
+      </c>
+      <c r="B210" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="211" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A211" t="s">
+        <v>318</v>
+      </c>
+      <c r="B211" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="212" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A212" t="s">
+        <v>319</v>
+      </c>
+      <c r="B212" t="s">
+        <v>322</v>
       </c>
     </row>
   </sheetData>
